--- a/naver.xlsx
+++ b/naver.xlsx
@@ -15,155 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
-  <si>
-    <t>no_1</t>
-  </si>
-  <si>
-    <t>no_2</t>
-  </si>
-  <si>
-    <t>no_3</t>
-  </si>
-  <si>
-    <t>no_4</t>
-  </si>
-  <si>
-    <t>no_5</t>
-  </si>
-  <si>
-    <t>no_6</t>
-  </si>
-  <si>
-    <t>no_7</t>
-  </si>
-  <si>
-    <t>no_8</t>
-  </si>
-  <si>
-    <t>no_9</t>
-  </si>
-  <si>
-    <t>no_10</t>
-  </si>
-  <si>
-    <t>no_11</t>
-  </si>
-  <si>
-    <t>no_12</t>
-  </si>
-  <si>
-    <t>no_13</t>
-  </si>
-  <si>
-    <t>no_14</t>
-  </si>
-  <si>
-    <t>no_15</t>
-  </si>
-  <si>
-    <t>no_16</t>
-  </si>
-  <si>
-    <t>no_17</t>
-  </si>
-  <si>
-    <t>no_18</t>
-  </si>
-  <si>
-    <t>no_19</t>
-  </si>
-  <si>
-    <t>no_20</t>
-  </si>
-  <si>
-    <t>Item_Order_Number</t>
-  </si>
-  <si>
-    <t>4019903975</t>
-  </si>
-  <si>
-    <t>4019897707</t>
-  </si>
-  <si>
-    <t>4019889721</t>
-  </si>
-  <si>
-    <t>4019883547</t>
-  </si>
-  <si>
-    <t>4019877054</t>
-  </si>
-  <si>
-    <t>4016946712</t>
-  </si>
-  <si>
-    <t>3998507371</t>
-  </si>
-  <si>
-    <t>3936414889</t>
-  </si>
-  <si>
-    <t>3933925990</t>
-  </si>
-  <si>
-    <t>3933540460</t>
-  </si>
-  <si>
-    <t>3928906630</t>
-  </si>
-  <si>
-    <t>Order_Number</t>
-  </si>
-  <si>
-    <t>데코리아 프리미엄 간편한 접착식 알루미늄 폼블럭 BLK-207 그레이 콘크리트 폼블럭</t>
-  </si>
-  <si>
-    <t>데코리아 프리미엄 간편한 접착식 알루미늄 폼블럭 BLK-206 화이트 콘크리트 폼블럭</t>
-  </si>
-  <si>
-    <t>데코리아 프리미엄 간편한 접착식 알루미늄 폼블럭 BLK-205 브라운 우드 폼블럭</t>
-  </si>
-  <si>
-    <t>데코리아 프리미엄 간편한 접착식 알루미늄 폼블럭 BLK-204 화이트 우드 폼블럭</t>
-  </si>
-  <si>
-    <t>데코리아 프리미엄 간편한 접착식 알루미늄 폼블럭 BLK-203 그레이 유니 UNI폼블럭</t>
-  </si>
-  <si>
-    <t>데코리아 프리미엄 간편한 접착식 알루미늄 폼블럭 BLK-202 화이트 유니 UNI 폼블럭 2.5m</t>
-  </si>
-  <si>
-    <t>데코리아 프리미엄 간편한 접착식 알루미늄 폼블럭 BLK-201 화이트 폼블럭 2.5m</t>
-  </si>
-  <si>
-    <t>재사용이 가능한 무점착 원목무늬목 바닥재 로즈쪽마루 901 (폭)100cm</t>
-  </si>
-  <si>
-    <t>재사용이 가능한 무점착 원목무늬목 바닥재 노르딕편백 888 (폭)100cm</t>
-  </si>
-  <si>
-    <t>재사용이 가능한 무점착 원목무늬목 바닥재 체리 803 (폭)100cm</t>
-  </si>
-  <si>
-    <t>재사용이 가능한 무점착 원목무늬목 바닥재 앤틱 323 (폭)100cm</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -182,22 +46,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -495,171 +349,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>